--- a/Test_input.xlsx
+++ b/Test_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\Web_KTPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5888DD-79DB-42FD-9D09-5A4F7E5B99CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFE333-E94D-4DC1-8EFB-8BB26FC5A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F1CD735-948A-4F17-A1DF-359A80976EDA}"/>
   </bookViews>
@@ -422,11 +422,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -434,11 +437,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B3A9CF-6CB7-420E-992E-F2960A782706}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="B96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,43 +794,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="14"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -848,7 +848,7 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -868,7 +868,7 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -888,7 +888,7 @@
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -908,7 +908,7 @@
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -928,7 +928,7 @@
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -948,7 +948,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -968,48 +968,48 @@
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="14"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1027,7 +1027,7 @@
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1047,48 +1047,48 @@
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="11" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="14"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1106,7 +1106,7 @@
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1126,48 +1126,48 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="14"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -1185,7 +1185,7 @@
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1305,44 +1305,44 @@
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="9"/>
-      <c r="F37" s="14"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="11"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -1357,7 +1357,7 @@
       <c r="D38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1374,44 +1374,44 @@
       <c r="D39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="9"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="9"/>
-      <c r="F43" s="14"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -1426,7 +1426,7 @@
       <c r="D44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       <c r="D46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="F46" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       <c r="D47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       <c r="D48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1509,43 +1509,43 @@
       <c r="D49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="9"/>
-      <c r="F53" s="14"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="11"/>
+      <c r="F53" s="10"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -1560,7 +1560,7 @@
       <c r="D54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1577,43 +1577,43 @@
       <c r="D55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="14" t="s">
+      <c r="F58" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="9"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="9"/>
-      <c r="F59" s="14"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="11"/>
+      <c r="F59" s="10"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -1628,7 +1628,7 @@
       <c r="D60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
       <c r="D61" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       <c r="D62" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="13" t="s">
+      <c r="F62" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1679,48 +1679,48 @@
       <c r="D63" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="9"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="14"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -1738,7 +1738,7 @@
       <c r="E68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="13" t="s">
+      <c r="F68" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1758,48 +1758,48 @@
       <c r="E69" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F69" s="13" t="s">
+      <c r="F69" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="11" t="s">
+      <c r="C72" s="11"/>
+      <c r="D72" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="9"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="14"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -1817,7 +1817,7 @@
       <c r="E74" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1837,48 +1837,48 @@
       <c r="E75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="11" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="9"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="14"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="10"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
@@ -1896,7 +1896,7 @@
       <c r="E80" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F80" s="13" t="s">
+      <c r="F80" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1916,48 +1916,48 @@
       <c r="E81" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F81" s="13" t="s">
+      <c r="F81" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="11" t="s">
+      <c r="C84" s="11"/>
+      <c r="D84" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F84" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="9"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="14"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="10"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
@@ -1975,7 +1975,7 @@
       <c r="E86" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="E87" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F87" s="13" t="s">
+      <c r="F87" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2007,38 +2007,38 @@
       <c r="E88" s="3"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="9"/>
+      <c r="A92" s="11"/>
       <c r="B92" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="9"/>
-      <c r="F92" s="14"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="11"/>
+      <c r="F92" s="10"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
@@ -2053,7 +2053,7 @@
       <c r="D93" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F93" s="13" t="s">
+      <c r="F93" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2070,43 +2070,43 @@
       <c r="D94" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F94" s="13" t="s">
+      <c r="F94" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="14" t="s">
+      <c r="F97" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="9"/>
+      <c r="A98" s="11"/>
       <c r="B98" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="9"/>
-      <c r="F98" s="14"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="11"/>
+      <c r="F98" s="10"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
@@ -2121,7 +2121,7 @@
       <c r="D99" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F99" s="13" t="s">
+      <c r="F99" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
       <c r="D100" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="D101" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="13" t="s">
+      <c r="F101" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2172,43 +2172,43 @@
       <c r="D102" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F102" s="13" t="s">
+      <c r="F102" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="14" t="s">
+      <c r="F105" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="9"/>
+      <c r="A106" s="11"/>
       <c r="B106" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="9"/>
-      <c r="F106" s="14"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="11"/>
+      <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -2223,7 +2223,7 @@
       <c r="D107" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F107" s="13" t="s">
+      <c r="F107" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2240,43 +2240,43 @@
       <c r="D108" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F108" s="13" t="s">
+      <c r="F108" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="11" t="s">
+      <c r="C111" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="14" t="s">
+      <c r="F111" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="9"/>
+      <c r="A112" s="11"/>
       <c r="B112" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="9"/>
-      <c r="F112" s="14"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="11"/>
+      <c r="F112" s="10"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
@@ -2291,7 +2291,7 @@
       <c r="D113" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       <c r="D114" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2325,43 +2325,43 @@
       <c r="D116" s="3"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="11" t="s">
+      <c r="C119" s="11"/>
+      <c r="D119" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F119" s="14" t="s">
+      <c r="F119" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="9"/>
+      <c r="A120" s="11"/>
       <c r="B120" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="14"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="10"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
@@ -2379,7 +2379,7 @@
       <c r="E121" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F121" s="13" t="s">
+      <c r="F121" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2399,48 +2399,48 @@
       <c r="E122" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F122" s="13" t="s">
+      <c r="F122" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="11" t="s">
+      <c r="C125" s="11"/>
+      <c r="D125" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="E125" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F125" s="14" t="s">
+      <c r="F125" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="9"/>
+      <c r="A126" s="11"/>
       <c r="B126" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="14"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="10"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
@@ -2458,7 +2458,7 @@
       <c r="E127" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F127" s="13" t="s">
+      <c r="F127" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       <c r="E128" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F128" s="13" t="s">
+      <c r="F128" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2498,97 +2498,6 @@
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A118:E118"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="A124:E124"/>
     <mergeCell ref="B125:C125"/>
@@ -2598,6 +2507,97 @@
     <mergeCell ref="A125:A126"/>
     <mergeCell ref="D125:D126"/>
     <mergeCell ref="B119:C119"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F97:F98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_input.xlsx
+++ b/Test_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\Web_KTPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCFE333-E94D-4DC1-8EFB-8BB26FC5A577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3CAC05-14A4-4C74-ACA0-2D08C5A16687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F1CD735-948A-4F17-A1DF-359A80976EDA}"/>
   </bookViews>
@@ -298,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,8 +337,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,7 +355,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,14 +436,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -437,8 +448,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -781,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B3A9CF-6CB7-420E-992E-F2960A782706}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B96" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,43 +811,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -848,7 +865,7 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -868,7 +885,7 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -888,7 +905,7 @@
       <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -908,7 +925,7 @@
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -928,7 +945,7 @@
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -948,7 +965,7 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -968,48 +985,48 @@
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1027,7 +1044,7 @@
       <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1047,48 +1064,48 @@
       <c r="E16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1106,7 +1123,7 @@
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1126,48 +1143,48 @@
       <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -1185,7 +1202,7 @@
       <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1205,7 +1222,7 @@
       <c r="E28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1225,7 +1242,7 @@
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1245,7 +1262,7 @@
       <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1265,7 +1282,7 @@
       <c r="E31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1285,7 +1302,7 @@
       <c r="E32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1305,44 +1322,47 @@
       <c r="E33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="F33" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="F37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="9"/>
+      <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
@@ -1357,7 +1377,7 @@
       <c r="D38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1374,44 +1394,44 @@
       <c r="D39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="11"/>
-      <c r="F43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="9"/>
+      <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
@@ -1426,7 +1446,7 @@
       <c r="D44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1443,7 +1463,7 @@
       <c r="D45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1460,7 +1480,7 @@
       <c r="D46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1477,7 +1497,7 @@
       <c r="D47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1494,7 +1514,7 @@
       <c r="D48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1509,43 +1529,43 @@
       <c r="D49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="11"/>
-      <c r="F53" s="10"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="9"/>
+      <c r="F53" s="13"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -1560,7 +1580,7 @@
       <c r="D54" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1577,43 +1597,43 @@
       <c r="D55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="11"/>
-      <c r="F59" s="10"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="9"/>
+      <c r="F59" s="13"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -1628,7 +1648,7 @@
       <c r="D60" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1645,7 +1665,7 @@
       <c r="D61" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1662,7 +1682,7 @@
       <c r="D62" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1679,48 +1699,48 @@
       <c r="D63" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="12" t="s">
+      <c r="C66" s="9"/>
+      <c r="D66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F66" s="10" t="s">
+      <c r="F66" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="10"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="13"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
@@ -1738,7 +1758,7 @@
       <c r="E68" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1758,48 +1778,48 @@
       <c r="E69" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="9"/>
+      <c r="D72" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="10"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="13"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
@@ -1817,7 +1837,7 @@
       <c r="E74" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1837,48 +1857,48 @@
       <c r="E75" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12" t="s">
+      <c r="C78" s="9"/>
+      <c r="D78" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="10" t="s">
+      <c r="F78" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="10"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
@@ -1896,7 +1916,7 @@
       <c r="E80" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1916,48 +1936,48 @@
       <c r="E81" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12" t="s">
+      <c r="C84" s="9"/>
+      <c r="D84" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="10" t="s">
+      <c r="F84" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="10"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="13"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
@@ -1975,7 +1995,7 @@
       <c r="E86" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1995,7 +2015,7 @@
       <c r="E87" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2007,38 +2027,38 @@
       <c r="E88" s="3"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C91" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="11" t="s">
+      <c r="D91" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="11"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="11"/>
-      <c r="F92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="9"/>
+      <c r="F92" s="13"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
@@ -2053,7 +2073,7 @@
       <c r="D93" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2070,43 +2090,43 @@
       <c r="D94" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="12" t="s">
+      <c r="C97" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="11" t="s">
+      <c r="D97" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="11"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="11"/>
-      <c r="F98" s="10"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="9"/>
+      <c r="F98" s="13"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
@@ -2121,7 +2141,7 @@
       <c r="D99" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2138,7 +2158,7 @@
       <c r="D100" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2155,7 +2175,7 @@
       <c r="D101" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2172,43 +2192,43 @@
       <c r="D102" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="F102" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="11" t="s">
+      <c r="D105" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F105" s="10" t="s">
+      <c r="F105" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="11"/>
-      <c r="F106" s="10"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="9"/>
+      <c r="F106" s="13"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
@@ -2223,7 +2243,7 @@
       <c r="D107" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="F107" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2240,43 +2260,43 @@
       <c r="D108" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="F108" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D111" s="11" t="s">
+      <c r="D111" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="11"/>
-      <c r="F112" s="10"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="9"/>
+      <c r="F112" s="13"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
@@ -2291,7 +2311,7 @@
       <c r="D113" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="F113" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2308,7 +2328,7 @@
       <c r="D114" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F114" s="9" t="s">
+      <c r="F114" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2325,43 +2345,43 @@
       <c r="D116" s="3"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="11" t="s">
+      <c r="A119" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="11"/>
-      <c r="D119" s="12" t="s">
+      <c r="C119" s="9"/>
+      <c r="D119" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E119" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F119" s="10" t="s">
+      <c r="F119" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="11"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="10"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="13"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
@@ -2379,7 +2399,7 @@
       <c r="E121" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="F121" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2399,48 +2419,48 @@
       <c r="E122" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="F122" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
+      <c r="A125" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C125" s="11"/>
-      <c r="D125" s="12" t="s">
+      <c r="C125" s="9"/>
+      <c r="D125" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="11" t="s">
+      <c r="E125" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F125" s="10" t="s">
+      <c r="F125" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="11"/>
+      <c r="A126" s="9"/>
       <c r="B126" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="12"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="10"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="13"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
@@ -2458,7 +2478,7 @@
       <c r="E127" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="F127" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2478,7 +2498,7 @@
       <c r="E128" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F128" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2498,6 +2518,97 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="F125:F126"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="A118:E118"/>
     <mergeCell ref="E119:E120"/>
     <mergeCell ref="A124:E124"/>
     <mergeCell ref="B125:C125"/>
@@ -2507,97 +2618,6 @@
     <mergeCell ref="A125:A126"/>
     <mergeCell ref="D125:D126"/>
     <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F97:F98"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_input.xlsx
+++ b/Test_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\Web_KTPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21C9B67-FB59-4AA0-AACA-5097F4F80319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8988D2D-53AE-4D51-B4FE-552348002846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="101">
   <si>
     <t>Function checkAccount (Phủ đường dẫn)</t>
   </si>
@@ -304,10 +304,25 @@
     <t>item.quantity = 2</t>
   </si>
   <si>
-    <t>item đã tồn tại và quantity = 1. sau khi thêm thì = 2</t>
-  </si>
-  <si>
-    <t>item chưa tồn tại trong cart. Sau khi thêm, item quantity = 1</t>
+    <t>item không tồn tại và quantity = 0. sau khi thêm thì = 1</t>
+  </si>
+  <si>
+    <t>item tồn tại trong cart. Sau khi thêm, item quantity = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ac </t>
+  </si>
+  <si>
+    <t>Không có đầu vào phù hợp</t>
+  </si>
+  <si>
+    <t>Pass đã được mã hóa</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -352,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +392,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -421,12 +442,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,19 +507,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,43 +848,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="17"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -840,8 +902,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
+      <c r="F4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -965,43 +1027,43 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="15"/>
+      <c r="D13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1039,322 +1101,262 @@
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
+      <c r="F16" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="15"/>
+      <c r="D19" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="3">
-        <v>343</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>15</v>
+        <v>97</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3">
+        <v>32</v>
+      </c>
+      <c r="B22" s="20">
         <v>123</v>
       </c>
-      <c r="C22" s="3">
-        <v>123</v>
-      </c>
+      <c r="C22" s="21"/>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>11</v>
+        <v>98</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="17"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2">
-        <v>123</v>
-      </c>
-      <c r="C27" s="2">
-        <v>123</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B27" s="20">
+        <v>343</v>
+      </c>
+      <c r="C27" s="21"/>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>11</v>
+        <v>97</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2">
+        <v>32</v>
+      </c>
+      <c r="B28" s="20">
         <v>123</v>
       </c>
+      <c r="C28" s="21"/>
       <c r="D28" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="2">
-        <v>123</v>
-      </c>
-      <c r="C29" s="2">
-        <v>456</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2">
-        <v>456</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>15</v>
+      <c r="A31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2">
-        <v>456</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="15"/>
+      <c r="B32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="8"/>
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="17" t="s">
+      <c r="F37" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="1" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="14"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -1373,191 +1375,190 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="8"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>5</v>
+      <c r="A42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="14"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="F48" s="13"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="B49" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="B50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D53" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F53" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
+      <c r="B54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="14"/>
-      <c r="F53" s="17"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="F54" s="13"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
@@ -1576,331 +1577,339 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A60" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="E61" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="17" t="s">
+      <c r="F61" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="14"/>
-      <c r="B59" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="14"/>
-      <c r="F59" s="17"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A62" s="15"/>
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="14" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A66" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="16" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E67" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="17" t="s">
+      <c r="F67" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="14"/>
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="15"/>
+      <c r="B68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="17"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="13"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="14" t="s">
+      <c r="F70" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A72" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="16" t="s">
+      <c r="C73" s="15"/>
+      <c r="D73" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E73" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="17" t="s">
+      <c r="F73" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="14"/>
-      <c r="B73" s="1" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="15"/>
+      <c r="B74" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D73" s="16"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="17"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="13"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B78" s="14" t="s">
+      <c r="C76" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A78" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="16" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E79" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="17" t="s">
+      <c r="F79" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="14"/>
-      <c r="B79" s="1" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="15"/>
+      <c r="B80" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="17"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="13"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>92</v>
@@ -1909,250 +1918,242 @@
         <v>93</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F81" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+      <c r="F82" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A85" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="15"/>
+      <c r="B87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="F87" s="13"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A91" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="16" t="s">
+      <c r="C92" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="D92" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F92" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="14"/>
-      <c r="B85" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="17"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="14"/>
-      <c r="B92" s="1" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="15"/>
+      <c r="B93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="16"/>
-      <c r="D92" s="14"/>
-      <c r="F92" s="17"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B95" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
+      <c r="F95" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="A97" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A99" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C100" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D100" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="17" t="s">
+      <c r="F100" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="14"/>
-      <c r="B98" s="1" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="15"/>
+      <c r="B101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C98" s="16"/>
-      <c r="D98" s="14"/>
-      <c r="F98" s="17"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B100" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="F101" s="13"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
@@ -2162,430 +2163,286 @@
         <v>44</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A105" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C106" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D106" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="17" t="s">
+      <c r="F106" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="14"/>
-      <c r="B106" s="1" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="15"/>
+      <c r="B107" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="14"/>
-      <c r="F106" s="17"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="F107" s="13"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B109" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F108" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
+      <c r="F109" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="3"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A113" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="15"/>
+      <c r="D114" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="15"/>
+      <c r="B115" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D115" s="14"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A119" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B120" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C120" s="15"/>
+      <c r="D120" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="E120" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="F120" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="14"/>
-      <c r="B112" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="15"/>
+      <c r="B121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="14"/>
-      <c r="F112" s="17"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="3"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A118" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B119" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C119" s="14"/>
-      <c r="D119" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F119" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="14"/>
-      <c r="B120" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D120" s="16"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="17"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="13"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B122" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E123" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F122" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A124" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
+      <c r="F123" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" s="14"/>
-      <c r="D125" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F125" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="14"/>
-      <c r="B126" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="17"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="3"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="F125:F126"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="A119:A120"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D36:D37"/>
+  <mergeCells count="106">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A12:E12"/>
@@ -2593,6 +2450,105 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="A119:E119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="D114:D115"/>
+    <mergeCell ref="D120:D121"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F120:F121"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F100:F101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_input.xlsx
+++ b/Test_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\Web_KTPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8988D2D-53AE-4D51-B4FE-552348002846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C874639-6C37-4265-8A55-066C4CD9C089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,14 +507,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,9 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,13 +848,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -864,13 +864,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="15"/>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -882,9 +882,9 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1027,13 +1027,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -1043,13 +1043,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1061,9 +1061,9 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1106,13 +1106,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
@@ -1122,41 +1122,41 @@
         <v>2</v>
       </c>
       <c r="C19" s="15"/>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1164,10 +1164,10 @@
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="21">
         <v>123</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
@@ -1179,13 +1179,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
@@ -1195,41 +1195,41 @@
         <v>2</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="21">
         <v>343</v>
       </c>
-      <c r="C27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1237,10 +1237,10 @@
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="21">
         <v>123</v>
       </c>
-      <c r="C28" s="21"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1255,12 +1255,12 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1270,13 +1270,13 @@
       <c r="B31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1285,9 +1285,9 @@
       <c r="B32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="14"/>
+      <c r="C32" s="16"/>
       <c r="D32" s="15"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
@@ -1323,13 +1323,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1339,13 +1339,13 @@
       <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1354,9 +1354,9 @@
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="14"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="15"/>
-      <c r="F38" s="13"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
@@ -1459,12 +1459,12 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
@@ -1473,13 +1473,13 @@
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1488,9 +1488,9 @@
       <c r="B48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C48" s="14"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="15"/>
-      <c r="F48" s="13"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
@@ -1527,12 +1527,12 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
@@ -1541,13 +1541,13 @@
       <c r="B53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C53" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1556,9 +1556,9 @@
       <c r="B54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="15"/>
-      <c r="F54" s="13"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
@@ -1629,13 +1629,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
@@ -1645,13 +1645,13 @@
         <v>2</v>
       </c>
       <c r="C61" s="15"/>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1663,9 +1663,9 @@
       <c r="C62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="13"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
@@ -1708,13 +1708,13 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
@@ -1724,13 +1724,13 @@
         <v>2</v>
       </c>
       <c r="C67" s="15"/>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1742,9 +1742,9 @@
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="14"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="13"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
@@ -1787,13 +1787,13 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
@@ -1803,13 +1803,13 @@
         <v>2</v>
       </c>
       <c r="C73" s="15"/>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1821,9 +1821,9 @@
       <c r="C74" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D74" s="14"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="13"/>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
@@ -1866,13 +1866,13 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
@@ -1882,13 +1882,13 @@
         <v>2</v>
       </c>
       <c r="C79" s="15"/>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F79" s="13" t="s">
+      <c r="F79" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1900,9 +1900,9 @@
       <c r="C80" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D80" s="14"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="13"/>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
@@ -1952,12 +1952,12 @@
       <c r="E83" s="3"/>
     </row>
     <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A85" s="17" t="s">
+      <c r="A85" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
@@ -1966,13 +1966,13 @@
       <c r="B86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C86" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F86" s="13" t="s">
+      <c r="F86" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1981,9 +1981,9 @@
       <c r="B87" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="14"/>
+      <c r="C87" s="16"/>
       <c r="D87" s="15"/>
-      <c r="F87" s="13"/>
+      <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
@@ -2020,12 +2020,12 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A91" s="17" t="s">
+      <c r="A91" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
@@ -2034,13 +2034,13 @@
       <c r="B92" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F92" s="13" t="s">
+      <c r="F92" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2049,9 +2049,9 @@
       <c r="B93" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="14"/>
+      <c r="C93" s="16"/>
       <c r="D93" s="15"/>
-      <c r="F93" s="13"/>
+      <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
@@ -2122,12 +2122,12 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
@@ -2136,13 +2136,13 @@
       <c r="B100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C100" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="13" t="s">
+      <c r="F100" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2151,9 +2151,9 @@
       <c r="B101" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C101" s="14"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="15"/>
-      <c r="F101" s="13"/>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
@@ -2190,12 +2190,12 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A105" s="17" t="s">
+      <c r="A105" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
@@ -2204,13 +2204,13 @@
       <c r="B106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C106" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F106" s="13" t="s">
+      <c r="F106" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2219,9 +2219,9 @@
       <c r="B107" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="14"/>
+      <c r="C107" s="16"/>
       <c r="D107" s="15"/>
-      <c r="F107" s="13"/>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
@@ -2270,13 +2270,13 @@
       <c r="D111" s="3"/>
     </row>
     <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
@@ -2286,13 +2286,13 @@
         <v>2</v>
       </c>
       <c r="C114" s="15"/>
-      <c r="D114" s="14" t="s">
+      <c r="D114" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E114" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2304,9 +2304,9 @@
       <c r="C115" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D115" s="14"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="15"/>
-      <c r="F115" s="13"/>
+      <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
@@ -2349,13 +2349,13 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="15" t="s">
@@ -2365,13 +2365,13 @@
         <v>2</v>
       </c>
       <c r="C120" s="15"/>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="16" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="13" t="s">
+      <c r="F120" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2383,9 +2383,9 @@
       <c r="C121" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D121" s="14"/>
+      <c r="D121" s="16"/>
       <c r="E121" s="15"/>
-      <c r="F121" s="13"/>
+      <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
@@ -2452,6 +2452,11 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A36:D36"/>
@@ -2464,6 +2469,16 @@
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A79:A80"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A60:E60"/>
@@ -2473,32 +2488,9 @@
     <mergeCell ref="A72:E72"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="A78:E78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A31:A32"/>
     <mergeCell ref="D67:D68"/>
     <mergeCell ref="A114:A115"/>
     <mergeCell ref="A120:A121"/>
@@ -2517,9 +2509,13 @@
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="D114:D115"/>
     <mergeCell ref="D120:D121"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A106:A107"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E67:E68"/>
@@ -2531,6 +2527,10 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="D53:D54"/>
     <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="D106:D107"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F19:F20"/>
